--- a/Catcountsinorder.xlsx
+++ b/Catcountsinorder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berthahan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berthahan/Desktop/Senior_Year/Database /Project/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C585C918-4634-6140-A786-0CEBCC67C630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9C6ABB-86A1-2F4B-BE42-49F56E1C9F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16320"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catcounts" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4096" uniqueCount="4096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4127" uniqueCount="4096">
   <si>
     <t>.NET</t>
   </si>
@@ -12313,7 +12313,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -13153,11 +13153,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4096"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H4096"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13165,7 +13165,7 @@
     <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13173,7 +13173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>454</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>4069</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2072</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2080</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>3535</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2201</v>
       </c>
@@ -13205,255 +13205,441 @@
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3804</v>
       </c>
       <c r="B6">
         <v>484</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3170</v>
       </c>
       <c r="B7">
         <v>469</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3033</v>
       </c>
       <c r="B8">
         <v>441</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>407</v>
+      </c>
+      <c r="H8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3331</v>
       </c>
       <c r="B9">
         <v>410</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>454</v>
+      </c>
+      <c r="H9">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>247</v>
       </c>
       <c r="B10">
         <v>406</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>519</v>
+      </c>
+      <c r="H10">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1748</v>
       </c>
       <c r="B11">
         <v>383</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>673</v>
+      </c>
+      <c r="H11">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>925</v>
       </c>
       <c r="B12">
         <v>363</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>681</v>
+      </c>
+      <c r="H12">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>673</v>
       </c>
       <c r="B13">
         <v>355</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>692</v>
+      </c>
+      <c r="H13">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>519</v>
       </c>
       <c r="B14">
         <v>349</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>850</v>
+      </c>
+      <c r="H14">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>681</v>
       </c>
       <c r="B15">
         <v>341</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>892</v>
+      </c>
+      <c r="H15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>692</v>
       </c>
       <c r="B16">
         <v>318</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>925</v>
+      </c>
+      <c r="H16">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3145</v>
       </c>
       <c r="B17">
         <v>315</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H17">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1700</v>
       </c>
       <c r="B18">
         <v>307</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H18">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>850</v>
       </c>
       <c r="B19">
         <v>306</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H19">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2951</v>
       </c>
       <c r="B20">
         <v>279</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H20">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>892</v>
       </c>
       <c r="B21">
         <v>273</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H21">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3862</v>
       </c>
       <c r="B22">
         <v>250</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H22">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3562</v>
       </c>
       <c r="B23">
         <v>227</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>2080</v>
+      </c>
+      <c r="H23">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2132</v>
       </c>
       <c r="B24">
         <v>209</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>2072</v>
+      </c>
+      <c r="H24">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2333</v>
       </c>
       <c r="B25">
         <v>200</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>2132</v>
+      </c>
+      <c r="H25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1460</v>
       </c>
       <c r="B26">
         <v>188</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>2201</v>
+      </c>
+      <c r="H26">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1258</v>
       </c>
       <c r="B27">
         <v>175</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>2333</v>
+      </c>
+      <c r="H27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1327</v>
       </c>
       <c r="B28">
         <v>159</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>2343</v>
+      </c>
+      <c r="H28">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1819</v>
       </c>
       <c r="B29">
         <v>157</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>2951</v>
+      </c>
+      <c r="H29">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>407</v>
       </c>
       <c r="B30">
         <v>156</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>3033</v>
+      </c>
+      <c r="H30">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2343</v>
       </c>
       <c r="B31">
         <v>153</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>3145</v>
+      </c>
+      <c r="H31">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1259</v>
       </c>
       <c r="B32">
         <v>152</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>3170</v>
+      </c>
+      <c r="H32">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2068</v>
       </c>
       <c r="B33">
         <v>149</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>3331</v>
+      </c>
+      <c r="H33">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2500</v>
       </c>
       <c r="B34">
         <v>146</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>3562</v>
+      </c>
+      <c r="H34">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1207</v>
       </c>
       <c r="B35">
         <v>136</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>3804</v>
+      </c>
+      <c r="H35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>3242</v>
       </c>
       <c r="B36">
         <v>130</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>3862</v>
+      </c>
+      <c r="H36">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>2310</v>
       </c>
@@ -13461,7 +13647,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2516</v>
       </c>
@@ -13469,7 +13655,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3338</v>
       </c>
@@ -13477,7 +13663,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>3707</v>
       </c>
@@ -13485,7 +13671,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>923</v>
       </c>
@@ -13493,7 +13679,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2950</v>
       </c>
@@ -13501,7 +13687,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>413</v>
       </c>
@@ -13509,7 +13695,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>3038</v>
       </c>
@@ -13517,7 +13703,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>808</v>
       </c>
@@ -13525,7 +13711,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1206</v>
       </c>
@@ -13533,7 +13719,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>175</v>
       </c>
@@ -13541,7 +13727,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>3157</v>
       </c>
@@ -45934,8 +46120,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B4096">
-    <sortCondition descending="1" ref="B2:B4096"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G7:H36">
+    <sortCondition ref="G7:G36"/>
   </sortState>
   <dataConsolidate/>
   <phoneticPr fontId="18" type="noConversion"/>
